--- a/listOfField.xlsx
+++ b/listOfField.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
   <si>
     <t>Field Name in target xls</t>
   </si>
@@ -861,44 +861,13 @@
     <t>IdDocument</t>
   </si>
   <si>
-    <t>BIS-2018-0006-1136</t>
+    <t>BIS-2018-0006-1145</t>
   </si>
   <si>
     <t>Carbon and Alloy Pipe and Tube</t>
   </si>
   <si>
     <t>voestalpine Tubular Corporation</t>
-  </si>
-  <si>
-    <t>Material is imported for Penn Energy
-Please also see attachment “VATC Supporting Documents”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Please also see attachment “VATC Supporting Documents”
-The answer to this question is both National Security and Insufficient U.S. availability.  There is no bigger risk to our national security than dependence on an external source for our energy supply.  The U.S. is on the verge of energy independence.  If oil and gas companies do not have the casing to drill for hydrocarbons and maintain this independence then our national security is at risk.  The U.S. producers of quality seamless casing do not have the production capacity to produce the casing that is the subject of this request.  The casing is extremely high quality.  It has proprietary threaded connections that belong to voestalpine.  Every coupling is produced internally by voestalpine.  The steel is produced by voestalpine from U.S origin steel materials (see below).   The coupling stock is rolled, heat treated, cut to length and threaded by voestalpine.  Very few seamless casing producers can make this claim, if any.  No welded casing producer can make this claim.  
-The proprietary connections are tested to the strictest industry standards to which few US casing producers test their product. These niche proprietary connections are required by operators to safely and efficiently construct their wells, and are not widely available enough from US manufacturers to meet all requirements.   The domestic producers of premium connections do not have enough threading capacity to supply the industry in a timely manner.
-It should be mentioned that the feed stock used to produce voestalpine’s steel , and subsequently the casing that is brought back into the US, is made in Corpus Christi, Texas in a new state-of-the-art hot-briquetted iron (HBI) plant.  This billion dollar investment was commissioned in September 2016 by voestalpine.  Almost half of the production is sold to U.S. steel companies, e.g., Nucor and Big River Steel.  A large portion of the HBI is exported from the U.S. to Austria.  In Austria is turned into steel, and the steel is used to produce casing and the casing is shipped to the U.S. for consumption by U.S. oil and gas companies.
-Voest alpine produces high performance casing products designed for critical drilling applications where conditions require specialized products. The product has never undercut U.S. production, and voestalpine casing products have been a stable  player in the U.S. for over 30 years.  The voestalpine HBI mill has added to U.S. steelmaking capacity and supplies Austria with needed steel making material while also supplying U.S. producers. 
-</t>
-  </si>
-  <si>
-    <t>Seamless casing 5.5-inch outside diameter X 20.00 lbs/ft VA-EP-P110 threaded with VAsuperior connections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Drilling oil and gas wells 2) This product has superior quality to any product on the market.  voestalpine controls the quality in the production of the steel, production of the pipe, heat treatment and all the threading operations for both the pipe and the couplings.  Few, if any, manufacturers produce 100% of their couplings.  </t>
-  </si>
-  <si>
-    <t>This product is used to drill/complete oil and gas wells.  Without it operators will be limited in the production of oil and gas, putting our energy independence at risk and consequently our national security is at risk.</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>voestalpine Tubulars GmbH &amp; Co KG</t>
-  </si>
-  <si>
-    <t>BIS-2018-0006-1145</t>
   </si>
   <si>
     <t>This item is imported for CNX Resources
@@ -915,6 +884,18 @@
   </si>
   <si>
     <t>Seamless casing 5.5-inch outside diameter X 20.00 lbs/ft VA-XP-P110 threaded with Varoughneck connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Drilling oil and gas wells 2) This product has superior quality to any product on the market.  voestalpine controls the quality in the production of the steel, production of the pipe, heat treatment and all the threading operations for both the pipe and the couplings.  Few, if any, manufacturers produce 100% of their couplings.  </t>
+  </si>
+  <si>
+    <t>This product is used to drill/complete oil and gas wells.  Without it operators will be limited in the production of oil and gas, putting our energy independence at risk and consequently our national security is at risk.</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>voestalpine Tubulars GmbH &amp; Co KG</t>
   </si>
 </sst>
 </file>
@@ -3425,199 +3406,9 @@
       </c>
       <c r="CO1" s="1"/>
     </row>
-    <row r="2" spans="1:93">
-      <c r="A2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2">
-        <v>7304293110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2">
-        <v>9100000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J2">
-        <v>0.0001</v>
-      </c>
-      <c r="K2">
-        <v>0.0006</v>
-      </c>
-      <c r="L2"/>
-      <c r="M2">
-        <v>0.0002</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2">
-        <v>1.0E-5</v>
-      </c>
-      <c r="R2">
-        <v>0.0025</v>
-      </c>
-      <c r="S2">
-        <v>0.0035</v>
-      </c>
-      <c r="T2">
-        <v>0.002</v>
-      </c>
-      <c r="U2">
-        <v>0.006</v>
-      </c>
-      <c r="V2"/>
-      <c r="W2">
-        <v>0.0002</v>
-      </c>
-      <c r="X2"/>
-      <c r="Y2">
-        <v>0.003</v>
-      </c>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2">
-        <v>0.0002</v>
-      </c>
-      <c r="AD2">
-        <v>0.011</v>
-      </c>
-      <c r="AE2">
-        <v>0.016</v>
-      </c>
-      <c r="AF2"/>
-      <c r="AG2">
-        <v>0.002</v>
-      </c>
-      <c r="AH2"/>
-      <c r="AI2">
-        <v>0.003</v>
-      </c>
-      <c r="AJ2"/>
-      <c r="AK2">
-        <v>0.0003</v>
-      </c>
-      <c r="AL2"/>
-      <c r="AM2">
-        <v>0.0002</v>
-      </c>
-      <c r="AN2"/>
-      <c r="AO2">
-        <v>0.0003</v>
-      </c>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2">
-        <v>0.001</v>
-      </c>
-      <c r="AS2">
-        <v>0.004</v>
-      </c>
-      <c r="AT2"/>
-      <c r="AU2">
-        <v>0.0003</v>
-      </c>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2">
-        <v>0.0003</v>
-      </c>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2">
-        <v>0.0003</v>
-      </c>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2">
-        <v>8.023</v>
-      </c>
-      <c r="BG2">
-        <v>9.17</v>
-      </c>
-      <c r="BH2">
-        <v>120.66</v>
-      </c>
-      <c r="BI2"/>
-      <c r="BJ2">
-        <v>139.001</v>
-      </c>
-      <c r="BK2">
-        <v>141.09</v>
-      </c>
-      <c r="BL2"/>
-      <c r="BM2">
-        <v>12800</v>
-      </c>
-      <c r="BN2">
-        <v>861.9</v>
-      </c>
-      <c r="BO2"/>
-      <c r="BP2">
-        <v>861.9</v>
-      </c>
-      <c r="BQ2">
-        <v>965.3</v>
-      </c>
-      <c r="BR2">
-        <v>0.13</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>287</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>288</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>289</v>
-      </c>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2" t="s">
-        <v>290</v>
-      </c>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2" t="s">
-        <v>289</v>
-      </c>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2">
-        <v>9100000</v>
-      </c>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-    </row>
     <row r="3" spans="1:93">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B3">
         <v>7304293110</v>
@@ -3635,13 +3426,13 @@
         <v>9000000</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J3">
         <v>0.0001</v>
